--- a/medicine/Enfance/Stephanie_Blake/Stephanie_Blake.xlsx
+++ b/medicine/Enfance/Stephanie_Blake/Stephanie_Blake.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stephanie Blake, née en 1968 à Northfield dans le Minnesota aux États-Unis, est une autrice et illustratrice de littérature jeunesse, écrivant en français et vivant à Paris.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, elle est publiée par L'École des loisirs. Ses livres ont été traduits dans plus de 20 langues[1]. Je ne veux pas aller à l'école et Donner, c'est donner ont tous deux été traduits, puis publiés par Random House. Son personnage de Simon le lapin revient dans plusieurs ouvrages et devient un dessin animé diffusé sur France 5 depuis décembre 2016. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, elle est publiée par L'École des loisirs. Ses livres ont été traduits dans plus de 20 langues. Je ne veux pas aller à l'école et Donner, c'est donner ont tous deux été traduits, puis publiés par Random House. Son personnage de Simon le lapin revient dans plusieurs ouvrages et devient un dessin animé diffusé sur France 5 depuis décembre 2016. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Série Simon le lapin
 Caca boudin, L’école des loisirs ;
@@ -575,9 +591,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2018 :  Premio nazionale Nati per Leggere[2] du Salon international du livre (Turin) pour Je ne veux pas déménager</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2018 :  Premio nazionale Nati per Leggere du Salon international du livre (Turin) pour Je ne veux pas déménager</t>
         </is>
       </c>
     </row>
